--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A5A67E-CFBF-704D-BEC6-CBE3B5668A67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9B188C-49D3-574C-846A-46AB057D7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3500" windowWidth="25640" windowHeight="13940" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -61,19 +61,85 @@
     <t>Radius greatest depth proximal</t>
   </si>
   <si>
-    <t>Radius greatest length</t>
-  </si>
-  <si>
     <t>distal radius breadth</t>
   </si>
   <si>
     <t>Radius proximal breadth of facet</t>
   </si>
   <si>
-    <t>Radius smallest diameter</t>
-  </si>
-  <si>
     <t>radius M10</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>BFp</t>
+  </si>
+  <si>
+    <t>Bp</t>
+  </si>
+  <si>
+    <t>BFd</t>
+  </si>
+  <si>
+    <t>Bd</t>
+  </si>
+  <si>
+    <t>Ll</t>
+  </si>
+  <si>
+    <t>radius greatest length</t>
+  </si>
+  <si>
+    <t>radius medial length</t>
+  </si>
+  <si>
+    <t>radius diaphysis breadth</t>
+  </si>
+  <si>
+    <t>radius diaphysis depth</t>
+  </si>
+  <si>
+    <t>radius proximal articular breadth</t>
+  </si>
+  <si>
+    <t>radius proximal articular depth</t>
+  </si>
+  <si>
+    <t>radius distal breadth</t>
+  </si>
+  <si>
+    <t>radial condyle breadth</t>
+  </si>
+  <si>
+    <t>ulnar condyle breadth</t>
+  </si>
+  <si>
+    <t>radius lateral length</t>
+  </si>
+  <si>
+    <t>radius distal articular breadth</t>
+  </si>
+  <si>
+    <t>radius distal articular depth</t>
+  </si>
+  <si>
+    <t>radius proximal breadth</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>radius length from the proximal articular surgace to the distal articular surface</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>radius diaphysis circumference</t>
   </si>
 </sst>
 </file>
@@ -433,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,28 +549,162 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9B188C-49D3-574C-846A-46AB057D7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9455E-B057-1940-96A8-5E3813ECF875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structures" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="structures" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -52,24 +53,6 @@
     <t>Scott 1990</t>
   </si>
   <si>
-    <t>Radius greatest breadth proximal</t>
-  </si>
-  <si>
-    <t>Radius greatest depth distal</t>
-  </si>
-  <si>
-    <t>Radius greatest depth proximal</t>
-  </si>
-  <si>
-    <t>distal radius breadth</t>
-  </si>
-  <si>
-    <t>Radius proximal breadth of facet</t>
-  </si>
-  <si>
-    <t>radius M10</t>
-  </si>
-  <si>
     <t>GL</t>
   </si>
   <si>
@@ -140,6 +123,18 @@
   </si>
   <si>
     <t>radius diaphysis circumference</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
   </si>
 </sst>
 </file>
@@ -499,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,50 +529,101 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4" s="1" t="s">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6" s="1" t="s">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E7" s="1" t="s">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" s="1" t="s">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
       <c r="G11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -585,126 +631,39 @@
         <v>22</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
       <c r="G13">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="G14">
-        <v>4</v>
+      <c r="F14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="F16" t="s">
         <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -713,6 +672,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4206335-A915-8742-82F8-F72BF2C29968}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9455E-B057-1940-96A8-5E3813ECF875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D84D4-B24A-3749-8F86-924066EB9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
     <sheet name="axis" sheetId="3" r:id="rId2"/>
-    <sheet name="structures" sheetId="2" r:id="rId3"/>
+    <sheet name="circumference" sheetId="4" r:id="rId3"/>
+    <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Ll</t>
   </si>
   <si>
-    <t>radius greatest length</t>
-  </si>
-  <si>
     <t>radius medial length</t>
   </si>
   <si>
@@ -135,6 +133,51 @@
   </si>
   <si>
     <t>Pattern name</t>
+  </si>
+  <si>
+    <t>radius length</t>
+  </si>
+  <si>
+    <t>in oba</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>medialmost part of' some 'radius'</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>diaphysis of radius</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>proximal epiphysis of radius</t>
+  </si>
+  <si>
+    <t>distal epiphysis of radius</t>
+  </si>
+  <si>
+    <t>humeral facet on radius</t>
+  </si>
+  <si>
+    <t>lateral side of' some radius</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>radio-carpal joint</t>
+  </si>
+  <si>
+    <t>lateral distal condyle breadth; radial notch</t>
+  </si>
+  <si>
+    <t>medial distal condyle breadth; ulnar notch</t>
   </si>
 </sst>
 </file>
@@ -177,9 +220,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,8 +573,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -540,16 +587,22 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -559,8 +612,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -568,7 +624,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -579,15 +635,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -598,7 +657,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -609,15 +668,18 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -628,7 +690,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -636,15 +701,21 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -652,18 +723,21 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -673,26 +747,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4206335-A915-8742-82F8-F72BF2C29968}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -701,6 +913,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5F7A78-C192-2F4F-902B-6214D68434A9}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D84D4-B24A-3749-8F86-924066EB9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A9E7B-5B23-D245-8CA2-C162CC6CBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A9E7B-5B23-D245-8CA2-C162CC6CBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B488128-0E61-6346-ADFB-1A1EB0E9FE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -178,13 +178,61 @@
   </si>
   <si>
     <t>medial distal condyle breadth; ulnar notch</t>
+  </si>
+  <si>
+    <t>radial condyle</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Text definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subclass of</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Disjoint with</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>condyle' and ('part of' some 'distal epiphysis of radius')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +246,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,10 +280,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4206335-A915-8742-82F8-F72BF2C29968}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,6 +940,9 @@
       </c>
       <c r="B11" t="s">
         <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -934,12 +999,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B488128-0E61-6346-ADFB-1A1EB0E9FE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2F3AAE-4F9D-D144-B19D-A0524ADBCF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
     <sheet name="axis" sheetId="3" r:id="rId2"/>
-    <sheet name="circumference" sheetId="4" r:id="rId3"/>
-    <sheet name="structures" sheetId="2" r:id="rId4"/>
+    <sheet name="pointAB" sheetId="5" r:id="rId3"/>
+    <sheet name="circumference" sheetId="4" r:id="rId4"/>
+    <sheet name="structures" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -171,9 +172,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>radio-carpal joint</t>
-  </si>
-  <si>
     <t>lateral distal condyle breadth; radial notch</t>
   </si>
   <si>
@@ -226,6 +224,39 @@
   </si>
   <si>
     <t>condyle' and ('part of' some 'distal epiphysis of radius')</t>
+  </si>
+  <si>
+    <t>ulnar notch</t>
+  </si>
+  <si>
+    <t>styloid notch</t>
+  </si>
+  <si>
+    <t>radius length from the proximal articular surface to the distal articular surface</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>distal articular surface of radius</t>
+  </si>
+  <si>
+    <t>articular surface for carpals</t>
+  </si>
+  <si>
+    <t>proximal articular surface of radius</t>
+  </si>
+  <si>
+    <t>head of radius</t>
+  </si>
+  <si>
+    <t>need to suggest synonym</t>
+  </si>
+  <si>
+    <t>circumference</t>
   </si>
 </sst>
 </file>
@@ -602,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,6 +716,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -696,6 +730,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -718,6 +755,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -729,6 +769,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -751,22 +794,28 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -784,6 +833,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -809,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4206335-A915-8742-82F8-F72BF2C29968}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,7 +961,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -920,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,9 +993,6 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -964,32 +1013,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5F7A78-C192-2F4F-902B-6214D68434A9}">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71BA7E5-7577-7848-B328-20C7774117D9}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -998,68 +1060,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5F7A78-C192-2F4F-902B-6214D68434A9}">
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2F3AAE-4F9D-D144-B19D-A0524ADBCF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA27E93-FDBD-5A42-A98F-0D837DBAB48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>circumference</t>
+  </si>
+  <si>
+    <t>in fovt</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,6 +683,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -691,6 +697,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -705,6 +714,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -716,6 +728,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -730,6 +745,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -741,6 +759,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -755,6 +776,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -769,6 +793,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -780,6 +807,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -822,6 +852,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -833,6 +866,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -844,6 +880,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -856,6 +895,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -864,7 +904,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1130,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,5 +1219,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA27E93-FDBD-5A42-A98F-0D837DBAB48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F5D1B-1EC8-F543-B6DC-90F850A39A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -253,13 +253,22 @@
     <t>head of radius</t>
   </si>
   <si>
-    <t>need to suggest synonym</t>
-  </si>
-  <si>
     <t>circumference</t>
   </si>
   <si>
     <t>in fovt</t>
+  </si>
+  <si>
+    <t>on fovt-radius</t>
+  </si>
+  <si>
+    <t>need to find 'articular surface' or 'surface of bone'</t>
+  </si>
+  <si>
+    <t>part of' some 'distal epiphysis of radius'; 'articular surface'</t>
+  </si>
+  <si>
+    <t>suggested it in phenotype-ext</t>
   </si>
 </sst>
 </file>
@@ -636,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +693,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -698,7 +707,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -715,7 +724,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -729,7 +738,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -746,7 +755,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -760,7 +769,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -777,7 +786,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -794,7 +803,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -808,7 +817,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -853,7 +862,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -867,7 +876,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -881,7 +890,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -1114,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -1129,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,6 +1192,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
@@ -1194,21 +1206,33 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F5D1B-1EC8-F543-B6DC-90F850A39A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EB71D0-A675-E149-B122-A453E54F7B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>suggested it in phenotype-ext</t>
+  </si>
+  <si>
+    <t>in equids and ruminants</t>
+  </si>
+  <si>
+    <t>taxon restrictions</t>
   </si>
 </sst>
 </file>
@@ -643,15 +649,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,8 +685,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -691,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -705,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -722,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -736,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -752,8 +764,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -767,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -784,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -800,8 +815,11 @@
       <c r="G9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -815,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -832,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -846,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -860,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -874,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -888,7 +906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1138,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EB71D0-A675-E149-B122-A453E54F7B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1F2B7-E7CB-EF4F-B1C2-993D96679AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>taxon restrictions</t>
+  </si>
+  <si>
+    <t>radius diaphysis width</t>
   </si>
 </sst>
 </file>
@@ -309,12 +312,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -329,12 +338,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,6 +930,17 @@
       <c r="F16" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1F2B7-E7CB-EF4F-B1C2-993D96679AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819729A8-97F8-974D-940D-4AD60F92B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
@@ -662,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819729A8-97F8-974D-940D-4AD60F92B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0A50A-8DC8-5545-A2D4-D6150C1C5D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>radius diaphysis width</t>
+  </si>
+  <si>
+    <t>width and ('characteristic of' some 'diaphysis of radius')</t>
   </si>
 </sst>
 </file>
@@ -312,18 +315,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -338,13 +335,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +659,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,16 +927,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0A50A-8DC8-5545-A2D4-D6150C1C5D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A30C6-3367-9545-B88D-637FD6DE11CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="8320" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,6 +858,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -872,6 +875,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -954,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4206335-A915-8742-82F8-F72BF2C29968}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,6 +1090,9 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1091,6 +1100,9 @@
       </c>
       <c r="B12" t="s">
         <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1180,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A30C6-3367-9545-B88D-637FD6DE11CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7C808-DD76-B04B-8967-F63C7FAF7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="8320" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="8320" activeTab="4" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -262,9 +262,6 @@
     <t>on fovt-radius</t>
   </si>
   <si>
-    <t>need to find 'articular surface' or 'surface of bone'</t>
-  </si>
-  <si>
     <t>part of' some 'distal epiphysis of radius'; 'articular surface'</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>width and ('characteristic of' some 'diaphysis of radius')</t>
+  </si>
+  <si>
+    <t>asked why "articular surface" not in uberon</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -938,10 +938,10 @@
         <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -1281,12 +1281,12 @@
         <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7C808-DD76-B04B-8967-F63C7FAF7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446B29FB-0BD9-FA43-8F15-7D0DC408B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="8320" activeTab="4" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -259,9 +259,6 @@
     <t>in fovt</t>
   </si>
   <si>
-    <t>on fovt-radius</t>
-  </si>
-  <si>
     <t>part of' some 'distal epiphysis of radius'; 'articular surface'</t>
   </si>
   <si>
@@ -280,7 +277,7 @@
     <t>width and ('characteristic of' some 'diaphysis of radius')</t>
   </si>
   <si>
-    <t>asked why "articular surface" not in uberon</t>
+    <t>on fovt-radius; made pull request</t>
   </si>
 </sst>
 </file>
@@ -693,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -772,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -823,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -938,10 +935,10 @@
         <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,7 +1190,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,7 +1244,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -1261,7 +1258,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -1281,12 +1278,12 @@
         <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>

--- a/terms/radiusTerms.xlsx
+++ b/terms/radiusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446B29FB-0BD9-FA43-8F15-7D0DC408B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53521FF6-BA93-474D-ADA8-1FA281764B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="8320" activeTab="4" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
+    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="8320" xr2:uid="{DDED953A-1C75-5544-BDCF-AB53B1AEC9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD2143-C7D2-8344-B8FF-72F5FC76860B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,6 +933,9 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>80</v>
@@ -1189,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53E604-A5A6-0C41-A120-6C95F267A14E}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
